--- a/Code/Results/Cases/Case_2_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_84/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.63469972466279</v>
+        <v>12.04665772482491</v>
       </c>
       <c r="C2">
-        <v>6.881778854686141</v>
+        <v>10.47893012220653</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.96248577171339</v>
+        <v>16.57036778080546</v>
       </c>
       <c r="F2">
-        <v>25.39810041089061</v>
+        <v>36.40293817965991</v>
       </c>
       <c r="G2">
-        <v>19.85420468823529</v>
+        <v>29.33399675307534</v>
       </c>
       <c r="H2">
-        <v>8.5920633533258</v>
+        <v>14.57758611867002</v>
       </c>
       <c r="I2">
-        <v>14.11062230427061</v>
+        <v>23.37023978080238</v>
       </c>
       <c r="J2">
-        <v>5.290273225212543</v>
+        <v>7.616124039007515</v>
       </c>
       <c r="K2">
-        <v>10.75481980904147</v>
+        <v>8.381945459088373</v>
       </c>
       <c r="L2">
-        <v>8.772575822734433</v>
+        <v>12.7632868340245</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.34612387672525</v>
+        <v>18.84914455775374</v>
       </c>
       <c r="O2">
-        <v>13.62307688163429</v>
+        <v>22.23839176888653</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.72656072236124</v>
+        <v>11.79026408353352</v>
       </c>
       <c r="C3">
-        <v>6.922225114736137</v>
+        <v>10.49642845510756</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.7192120521701</v>
+        <v>16.56679092471172</v>
       </c>
       <c r="F3">
-        <v>24.87427211477586</v>
+        <v>36.4216525742797</v>
       </c>
       <c r="G3">
-        <v>19.7877191419648</v>
+        <v>29.43497388215109</v>
       </c>
       <c r="H3">
-        <v>8.669807972910304</v>
+        <v>14.62131112920121</v>
       </c>
       <c r="I3">
-        <v>14.25698626854575</v>
+        <v>23.45491895119098</v>
       </c>
       <c r="J3">
-        <v>5.237502397049078</v>
+        <v>7.602118139890761</v>
       </c>
       <c r="K3">
-        <v>10.17958988289069</v>
+        <v>8.201369063723284</v>
       </c>
       <c r="L3">
-        <v>8.502237426361555</v>
+        <v>12.74025727725266</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.49840133738753</v>
+        <v>18.89837454619737</v>
       </c>
       <c r="O3">
-        <v>13.70958568149644</v>
+        <v>22.31451187347675</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.13508801277227</v>
+        <v>11.63158686337303</v>
       </c>
       <c r="C4">
-        <v>6.948276002367653</v>
+        <v>10.50781440913358</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.57213949806327</v>
+        <v>16.56717180848327</v>
       </c>
       <c r="F4">
-        <v>24.56496166190238</v>
+        <v>36.44095580914389</v>
       </c>
       <c r="G4">
-        <v>19.76736093921093</v>
+        <v>29.5044819586561</v>
       </c>
       <c r="H4">
-        <v>8.721590529819395</v>
+        <v>14.6500107947666</v>
       </c>
       <c r="I4">
-        <v>14.35531528361612</v>
+        <v>23.51056142555085</v>
       </c>
       <c r="J4">
-        <v>5.204698525143515</v>
+        <v>7.593367498513179</v>
       </c>
       <c r="K4">
-        <v>9.808509655234493</v>
+        <v>8.089310638353039</v>
       </c>
       <c r="L4">
-        <v>8.335219146128072</v>
+        <v>12.72793029447649</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.59457542244854</v>
+        <v>18.93013295580479</v>
       </c>
       <c r="O4">
-        <v>13.77208200886027</v>
+        <v>22.36504039120009</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.8855024010429</v>
+        <v>11.56669887826899</v>
       </c>
       <c r="C5">
-        <v>6.959197558756999</v>
+        <v>10.51261613069463</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.51285879279112</v>
+        <v>16.56797711741254</v>
       </c>
       <c r="F5">
-        <v>24.44213165097305</v>
+        <v>36.45078759346293</v>
       </c>
       <c r="G5">
-        <v>19.76403399349357</v>
+        <v>29.5346895615683</v>
       </c>
       <c r="H5">
-        <v>8.74368486039271</v>
+        <v>14.66217241553606</v>
       </c>
       <c r="I5">
-        <v>14.39744614533739</v>
+        <v>23.53415416242761</v>
       </c>
       <c r="J5">
-        <v>5.191233432262501</v>
+        <v>7.589763910827239</v>
       </c>
       <c r="K5">
-        <v>9.652867092755191</v>
+        <v>8.043408731532651</v>
       </c>
       <c r="L5">
-        <v>8.266999481881216</v>
+        <v>12.7233667374978</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.63444731832927</v>
+        <v>18.94346073077387</v>
       </c>
       <c r="O5">
-        <v>13.79982446425685</v>
+        <v>22.38658399963995</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.84354104811364</v>
+        <v>11.55591329326378</v>
       </c>
       <c r="C6">
-        <v>6.961029524757238</v>
+        <v>10.51342324139014</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.50305686689471</v>
+        <v>16.56815015775642</v>
       </c>
       <c r="F6">
-        <v>24.42193335162319</v>
+        <v>36.45253888197637</v>
       </c>
       <c r="G6">
-        <v>19.76377633782916</v>
+        <v>29.53981904707583</v>
       </c>
       <c r="H6">
-        <v>8.74741284577312</v>
+        <v>14.66422001974058</v>
       </c>
       <c r="I6">
-        <v>14.40456454731738</v>
+        <v>23.53812717336204</v>
       </c>
       <c r="J6">
-        <v>5.188991805730496</v>
+        <v>7.589163274610927</v>
       </c>
       <c r="K6">
-        <v>9.626758035113728</v>
+        <v>8.035774239913575</v>
       </c>
       <c r="L6">
-        <v>8.25566514857295</v>
+        <v>12.72263683847591</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.64110931619348</v>
+        <v>18.94569713802521</v>
       </c>
       <c r="O6">
-        <v>13.80456606119702</v>
+        <v>22.39021883859228</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.13175670614747</v>
+        <v>11.63071255593971</v>
       </c>
       <c r="C7">
-        <v>6.948422057269259</v>
+        <v>10.50787851090458</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.57133727704836</v>
+        <v>16.56718003440831</v>
       </c>
       <c r="F7">
-        <v>24.56329196084348</v>
+        <v>36.44108044482032</v>
       </c>
       <c r="G7">
-        <v>19.76729619108406</v>
+        <v>29.50488173408604</v>
       </c>
       <c r="H7">
-        <v>8.721884515146506</v>
+        <v>14.65017292205599</v>
       </c>
       <c r="I7">
-        <v>14.35587521545295</v>
+        <v>23.51087588808318</v>
       </c>
       <c r="J7">
-        <v>5.204517318737565</v>
+        <v>7.59331905120136</v>
       </c>
       <c r="K7">
-        <v>9.806428409527157</v>
+        <v>8.088692468016125</v>
       </c>
       <c r="L7">
-        <v>8.33429961581453</v>
+        <v>12.72786688224492</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.59511038484324</v>
+        <v>18.9303111347706</v>
       </c>
       <c r="O7">
-        <v>13.77244705206772</v>
+        <v>22.36532707829345</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.32858012579002</v>
+        <v>11.95856502258511</v>
       </c>
       <c r="C8">
-        <v>6.895471958342051</v>
+        <v>10.48483058438295</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.87817259863014</v>
+        <v>16.56860091979718</v>
       </c>
       <c r="F8">
-        <v>25.21500031853185</v>
+        <v>36.40777028708906</v>
       </c>
       <c r="G8">
-        <v>19.82692992281945</v>
+        <v>29.36725228498709</v>
       </c>
       <c r="H8">
-        <v>8.618014148104674</v>
+        <v>14.59227834543226</v>
       </c>
       <c r="I8">
-        <v>14.15929128935221</v>
+        <v>23.39868000900732</v>
       </c>
       <c r="J8">
-        <v>5.272163693133571</v>
+        <v>7.611326334641016</v>
       </c>
       <c r="K8">
-        <v>10.56023173730002</v>
+        <v>8.31996399077747</v>
       </c>
       <c r="L8">
-        <v>8.679635135628832</v>
+        <v>12.75497228472486</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.39807846529148</v>
+        <v>18.86580189246346</v>
       </c>
       <c r="O8">
-        <v>13.65090714358944</v>
+        <v>22.26385108329823</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.40855718821056</v>
+        <v>12.58782680367744</v>
       </c>
       <c r="C9">
-        <v>6.80131074525853</v>
+        <v>10.44470702974348</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.49487850435912</v>
+        <v>16.59173524191397</v>
       </c>
       <c r="F9">
-        <v>26.58524457639091</v>
+        <v>36.40435909002926</v>
       </c>
       <c r="G9">
-        <v>20.11357712018647</v>
+        <v>29.15716172051026</v>
       </c>
       <c r="H9">
-        <v>8.447641507668852</v>
+        <v>14.49342257856</v>
       </c>
       <c r="I9">
-        <v>13.84410944753339</v>
+        <v>23.20760129183498</v>
       </c>
       <c r="J9">
-        <v>5.401458895637415</v>
+        <v>7.645427056532669</v>
       </c>
       <c r="K9">
-        <v>11.89410660913089</v>
+        <v>8.761559265798903</v>
       </c>
       <c r="L9">
-        <v>9.344595416555197</v>
+        <v>12.82233350930811</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.0325795741373</v>
+        <v>18.75140193843353</v>
       </c>
       <c r="O9">
-        <v>13.49087163486795</v>
+        <v>22.09494643701044</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.7764438465646</v>
+        <v>13.03708693595075</v>
       </c>
       <c r="C10">
-        <v>6.738062041664654</v>
+        <v>10.41829356281195</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.95293302722208</v>
+        <v>16.6209887318559</v>
       </c>
       <c r="F10">
-        <v>27.64058946527974</v>
+        <v>36.43943910684293</v>
       </c>
       <c r="G10">
-        <v>20.43672136710493</v>
+        <v>29.03956267512915</v>
       </c>
       <c r="H10">
-        <v>8.344562102541635</v>
+        <v>14.42970914719585</v>
       </c>
       <c r="I10">
-        <v>13.66010442849397</v>
+        <v>23.08483275236831</v>
       </c>
       <c r="J10">
-        <v>5.494192334929003</v>
+        <v>7.66972516260951</v>
       </c>
       <c r="K10">
-        <v>12.78384567187052</v>
+        <v>9.075528105707001</v>
       </c>
       <c r="L10">
-        <v>9.820754274950119</v>
+        <v>12.88022762845252</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.77628938408189</v>
+        <v>18.67466625804992</v>
       </c>
       <c r="O10">
-        <v>13.42652440211683</v>
+        <v>21.98921394788883</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.36447679583652</v>
+        <v>13.23771506253384</v>
       </c>
       <c r="C11">
-        <v>6.710587034765019</v>
+        <v>10.40693717597245</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.16156683547374</v>
+        <v>16.63692125966396</v>
       </c>
       <c r="F11">
-        <v>28.12964535002792</v>
+        <v>36.46350706440653</v>
       </c>
       <c r="G11">
-        <v>20.60981539533903</v>
+        <v>28.99410240675459</v>
       </c>
       <c r="H11">
-        <v>8.30289146377662</v>
+        <v>14.40265392710942</v>
       </c>
       <c r="I11">
-        <v>13.58783351176627</v>
+        <v>23.03280289744376</v>
       </c>
       <c r="J11">
-        <v>5.535846140007977</v>
+        <v>7.680611215831518</v>
       </c>
       <c r="K11">
-        <v>13.16875193118078</v>
+        <v>9.215470601443533</v>
       </c>
       <c r="L11">
-        <v>10.03379806207295</v>
+        <v>12.90832918800364</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.66225024024627</v>
+        <v>18.64133181542059</v>
       </c>
       <c r="O11">
-        <v>13.41003739958844</v>
+        <v>21.94510454597169</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58227246895222</v>
+        <v>13.31307942776147</v>
       </c>
       <c r="C12">
-        <v>6.700370698951875</v>
+        <v>10.4027311626002</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.24054546752329</v>
+        <v>16.64332832487971</v>
       </c>
       <c r="F12">
-        <v>28.31599950773456</v>
+        <v>36.47378105136779</v>
       </c>
       <c r="G12">
-        <v>20.6792274792716</v>
+        <v>28.97804757019926</v>
       </c>
       <c r="H12">
-        <v>8.287900932792857</v>
+        <v>14.39268566600325</v>
       </c>
       <c r="I12">
-        <v>13.56220965136668</v>
+        <v>23.01364935854488</v>
       </c>
       <c r="J12">
-        <v>5.551539505717944</v>
+        <v>7.684709063349812</v>
       </c>
       <c r="K12">
-        <v>13.31164152590856</v>
+        <v>9.268001542378244</v>
       </c>
       <c r="L12">
-        <v>10.11389684021672</v>
+        <v>12.91921873161575</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.6194250509315</v>
+        <v>18.62893413405457</v>
       </c>
       <c r="O12">
-        <v>13.40573645898559</v>
+        <v>21.928975442174</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.53558262104698</v>
+        <v>13.29687653393589</v>
       </c>
       <c r="C13">
-        <v>6.702562591579804</v>
+        <v>10.40363281040958</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.22353815285262</v>
+        <v>16.64193188750683</v>
       </c>
       <c r="F13">
-        <v>28.27581525239435</v>
+        <v>36.47151688374908</v>
       </c>
       <c r="G13">
-        <v>20.66410480919254</v>
+        <v>28.98145361010875</v>
       </c>
       <c r="H13">
-        <v>8.291093670840755</v>
+        <v>14.39482019650646</v>
       </c>
       <c r="I13">
-        <v>13.5676490204431</v>
+        <v>23.01774999718594</v>
       </c>
       <c r="J13">
-        <v>5.548163273966904</v>
+        <v>7.683827613233108</v>
       </c>
       <c r="K13">
-        <v>13.28099529675477</v>
+        <v>9.256709345001731</v>
       </c>
       <c r="L13">
-        <v>10.09667269846498</v>
+        <v>12.91686253389508</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.62863237519955</v>
+        <v>18.63159418747652</v>
       </c>
       <c r="O13">
-        <v>13.40657468595193</v>
+        <v>21.93242358780391</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.38249252926514</v>
+        <v>13.24392793181575</v>
       </c>
       <c r="C14">
-        <v>6.709742757501128</v>
+        <v>10.40658925496243</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.16806533573142</v>
+        <v>16.63744090422387</v>
       </c>
       <c r="F14">
-        <v>28.14495430896702</v>
+        <v>36.46432910299499</v>
       </c>
       <c r="G14">
-        <v>20.61544791462091</v>
+        <v>28.99275829411849</v>
       </c>
       <c r="H14">
-        <v>8.30164213694837</v>
+        <v>14.40182828336017</v>
       </c>
       <c r="I14">
-        <v>13.58568988849797</v>
+        <v>23.03121612071861</v>
       </c>
       <c r="J14">
-        <v>5.537138866752973</v>
+        <v>7.680948840891472</v>
       </c>
       <c r="K14">
-        <v>13.18056503380845</v>
+        <v>9.219801878353067</v>
       </c>
       <c r="L14">
-        <v>10.04039972405009</v>
+        <v>12.90922013902144</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.65871983466645</v>
+        <v>18.64030733919906</v>
       </c>
       <c r="O14">
-        <v>13.40964403040769</v>
+        <v>21.94376608439991</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.2880862120736</v>
+        <v>13.21141403095255</v>
       </c>
       <c r="C15">
-        <v>6.714165323239314</v>
+        <v>10.40841244519884</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.1340813651464</v>
+        <v>16.63473860751798</v>
       </c>
       <c r="F15">
-        <v>28.06494541302862</v>
+        <v>36.46007724129031</v>
       </c>
       <c r="G15">
-        <v>20.58615060223534</v>
+        <v>28.99983392720338</v>
       </c>
       <c r="H15">
-        <v>8.308207343797616</v>
+        <v>14.40615699812654</v>
       </c>
       <c r="I15">
-        <v>13.59697055013911</v>
+        <v>23.03953601120284</v>
       </c>
       <c r="J15">
-        <v>5.530375571985957</v>
+        <v>7.679182311417356</v>
       </c>
       <c r="K15">
-        <v>13.11867508694637</v>
+        <v>9.197133436038488</v>
       </c>
       <c r="L15">
-        <v>10.00585409290941</v>
+        <v>12.90457108540468</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.67719579854811</v>
+        <v>18.6456737183287</v>
       </c>
       <c r="O15">
-        <v>13.4117801533704</v>
+        <v>21.95078848191232</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.73732937359851</v>
+        <v>13.0238939282398</v>
       </c>
       <c r="C16">
-        <v>6.739883808578186</v>
+        <v>10.4190489611471</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.93929800015559</v>
+        <v>16.62000001448615</v>
       </c>
       <c r="F16">
-        <v>27.60879772081156</v>
+        <v>36.4380288917284</v>
       </c>
       <c r="G16">
-        <v>20.42594434206082</v>
+        <v>29.04269570225657</v>
       </c>
       <c r="H16">
-        <v>8.347393666171456</v>
+        <v>14.43151604421824</v>
       </c>
       <c r="I16">
-        <v>13.66506595079663</v>
+        <v>23.08830985575134</v>
       </c>
       <c r="J16">
-        <v>5.49145915706106</v>
+        <v>7.669010332449794</v>
       </c>
       <c r="K16">
-        <v>12.75829062531478</v>
+        <v>9.066320365312571</v>
       </c>
       <c r="L16">
-        <v>9.806754017713718</v>
+        <v>12.8784261615</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.78379274814372</v>
+        <v>18.67687632239011</v>
       </c>
       <c r="O16">
-        <v>13.42786797074861</v>
+        <v>21.992176916394</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.39072151929228</v>
+        <v>12.9078458236587</v>
       </c>
       <c r="C17">
-        <v>6.755994376574492</v>
+        <v>10.42574268333609</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.81982474630901</v>
+        <v>16.61162813564825</v>
       </c>
       <c r="F17">
-        <v>27.33116888050191</v>
+        <v>36.42657596707922</v>
       </c>
       <c r="G17">
-        <v>20.33443148379609</v>
+        <v>29.07105150316727</v>
       </c>
       <c r="H17">
-        <v>8.372796976259568</v>
+        <v>14.44756665440476</v>
       </c>
       <c r="I17">
-        <v>13.70983772060809</v>
+        <v>23.11920894072262</v>
       </c>
       <c r="J17">
-        <v>5.467446511208472</v>
+        <v>7.662727019141063</v>
       </c>
       <c r="K17">
-        <v>12.5321132366583</v>
+        <v>8.985297315807911</v>
       </c>
       <c r="L17">
-        <v>9.683651949609951</v>
+        <v>12.86283521475562</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.8498338818749</v>
+        <v>18.69642038620871</v>
       </c>
       <c r="O17">
-        <v>13.44108518047696</v>
+        <v>22.0185894325488</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.18813782371725</v>
+        <v>12.84074969471769</v>
       </c>
       <c r="C18">
-        <v>6.765382751592377</v>
+        <v>10.42965480853554</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.75113515196978</v>
+        <v>16.60706016635255</v>
       </c>
       <c r="F18">
-        <v>27.17233629147288</v>
+        <v>36.42075232264829</v>
       </c>
       <c r="G18">
-        <v>20.28424603894389</v>
+        <v>29.0881171684492</v>
       </c>
       <c r="H18">
-        <v>8.387897233297966</v>
+        <v>14.4569800643932</v>
       </c>
       <c r="I18">
-        <v>13.73665918036058</v>
+        <v>23.13734066063496</v>
       </c>
       <c r="J18">
-        <v>5.453585290460854</v>
+        <v>7.659097303536791</v>
       </c>
       <c r="K18">
-        <v>12.40015478432533</v>
+        <v>8.938426225569119</v>
       </c>
       <c r="L18">
-        <v>9.612514814887039</v>
+        <v>12.85403422813104</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.88805932041613</v>
+        <v>18.70780972314325</v>
       </c>
       <c r="O18">
-        <v>13.44988440700219</v>
+        <v>22.03415662742027</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.11899147005097</v>
+        <v>12.81797451456564</v>
       </c>
       <c r="C19">
-        <v>6.768582410953881</v>
+        <v>10.43099006008552</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.72788492473623</v>
+        <v>16.6055561151377</v>
       </c>
       <c r="F19">
-        <v>27.11870877977924</v>
+        <v>36.41891188913425</v>
       </c>
       <c r="G19">
-        <v>20.26767126561236</v>
+        <v>29.09402504043712</v>
       </c>
       <c r="H19">
-        <v>8.393092764363947</v>
+        <v>14.4601984702992</v>
       </c>
       <c r="I19">
-        <v>13.74592128857077</v>
+        <v>23.14354147455936</v>
       </c>
       <c r="J19">
-        <v>5.448883683541393</v>
+        <v>7.657865656681071</v>
       </c>
       <c r="K19">
-        <v>12.35515574081834</v>
+        <v>8.922511822776386</v>
       </c>
       <c r="L19">
-        <v>9.588374045098618</v>
+        <v>12.85108313476916</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.90104330420171</v>
+        <v>18.71169142071871</v>
       </c>
       <c r="O19">
-        <v>13.4530661300986</v>
+        <v>22.03949187206969</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.42795188989059</v>
+        <v>12.92023592271378</v>
       </c>
       <c r="C20">
-        <v>6.754266743362749</v>
+        <v>10.4250237036974</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.83254043378052</v>
+        <v>16.61249376632579</v>
       </c>
       <c r="F20">
-        <v>27.3606357207153</v>
+        <v>36.42771614454592</v>
       </c>
       <c r="G20">
-        <v>20.34391871756111</v>
+        <v>29.06795468714911</v>
       </c>
       <c r="H20">
-        <v>8.370041875489841</v>
+        <v>14.44583925495782</v>
       </c>
       <c r="I20">
-        <v>13.70496025423669</v>
+        <v>23.11588248567255</v>
       </c>
       <c r="J20">
-        <v>5.47000787765863</v>
+        <v>7.663397518480817</v>
       </c>
       <c r="K20">
-        <v>12.55638357069418</v>
+        <v>8.993950530421634</v>
       </c>
       <c r="L20">
-        <v>9.696791232053327</v>
+        <v>12.86447770488736</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.84277887257131</v>
+        <v>18.69432456476913</v>
       </c>
       <c r="O20">
-        <v>13.43955355024481</v>
+        <v>22.01573891692792</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.42759089414974</v>
+        <v>13.25949729353084</v>
       </c>
       <c r="C21">
-        <v>6.707628658875679</v>
+        <v>10.4057183165482</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.18436025234427</v>
+        <v>16.63874990197118</v>
       </c>
       <c r="F21">
-        <v>28.18336088482064</v>
+        <v>36.46640890149776</v>
       </c>
       <c r="G21">
-        <v>20.6296339024742</v>
+        <v>28.989406319703</v>
       </c>
       <c r="H21">
-        <v>8.298522057974447</v>
+        <v>14.39976232424046</v>
       </c>
       <c r="I21">
-        <v>13.5803427085248</v>
+        <v>23.02724589306187</v>
       </c>
       <c r="J21">
-        <v>5.540379202459586</v>
+        <v>7.681795073372494</v>
       </c>
       <c r="K21">
-        <v>13.2101416894037</v>
+        <v>9.230655403844532</v>
       </c>
       <c r="L21">
-        <v>10.05694457066505</v>
+        <v>12.91145820959881</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.64987273570943</v>
+        <v>18.63774196612106</v>
       </c>
       <c r="O21">
-        <v>13.40868893901695</v>
+        <v>21.940418930841</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.05249049949672</v>
+        <v>13.47764411492022</v>
       </c>
       <c r="C22">
-        <v>6.678243689022281</v>
+        <v>10.39365120868003</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.41411437691972</v>
+        <v>16.65808646506542</v>
       </c>
       <c r="F22">
-        <v>28.72776162749899</v>
+        <v>36.49845449365601</v>
       </c>
       <c r="G22">
-        <v>20.83893577718063</v>
+        <v>28.94483344352833</v>
       </c>
       <c r="H22">
-        <v>8.256399640507739</v>
+        <v>14.37126259562601</v>
       </c>
       <c r="I22">
-        <v>13.50911087469408</v>
+        <v>22.9725169788207</v>
       </c>
       <c r="J22">
-        <v>5.58590292149775</v>
+        <v>7.693676146154864</v>
       </c>
       <c r="K22">
-        <v>13.62070355759127</v>
+        <v>9.382641693990296</v>
       </c>
       <c r="L22">
-        <v>10.28894251356641</v>
+        <v>12.94360590898344</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.52588632866045</v>
+        <v>18.60207508703161</v>
       </c>
       <c r="O22">
-        <v>13.39988782757197</v>
+        <v>21.8945399262748</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.72155639826561</v>
+        <v>13.36156482246041</v>
       </c>
       <c r="C23">
-        <v>6.693826251050582</v>
+        <v>10.40004144771311</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.29152671055792</v>
+        <v>16.64756830856316</v>
       </c>
       <c r="F23">
-        <v>28.43663272728578</v>
+        <v>36.48073514104028</v>
       </c>
       <c r="G23">
-        <v>20.72512891013168</v>
+        <v>28.9680026556779</v>
       </c>
       <c r="H23">
-        <v>8.278445075068392</v>
+        <v>14.38632584335181</v>
       </c>
       <c r="I23">
-        <v>13.54615987260317</v>
+        <v>23.00143400788064</v>
       </c>
       <c r="J23">
-        <v>5.561650035790304</v>
+        <v>7.687348196681787</v>
       </c>
       <c r="K23">
-        <v>13.40311017777956</v>
+        <v>9.301786942025506</v>
       </c>
       <c r="L23">
-        <v>10.16544946494496</v>
+        <v>12.92631798848594</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.59187152050501</v>
+        <v>18.62099129770932</v>
       </c>
       <c r="O23">
-        <v>13.40350998650938</v>
+        <v>21.91871997847829</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.41113036557471</v>
+        <v>12.91463553250823</v>
       </c>
       <c r="C24">
-        <v>6.755047413366736</v>
+        <v>10.42534855558839</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.82679167535679</v>
+        <v>16.612101650856</v>
       </c>
       <c r="F24">
-        <v>27.347311322895</v>
+        <v>36.4271983000613</v>
       </c>
       <c r="G24">
-        <v>20.33962198985221</v>
+        <v>29.06935237965585</v>
       </c>
       <c r="H24">
-        <v>8.371285915886963</v>
+        <v>14.44661963377861</v>
       </c>
       <c r="I24">
-        <v>13.70716199538208</v>
+        <v>23.11738523150153</v>
       </c>
       <c r="J24">
-        <v>5.468850058130203</v>
+        <v>7.663094439757784</v>
       </c>
       <c r="K24">
-        <v>12.54541695085727</v>
+        <v>8.990039311286051</v>
       </c>
       <c r="L24">
-        <v>9.690852091664109</v>
+        <v>12.8637346286361</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.84596763961717</v>
+        <v>18.69527160838586</v>
       </c>
       <c r="O24">
-        <v>13.44024226890543</v>
+        <v>22.01702644428737</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87419637804724</v>
+        <v>12.41956171814241</v>
       </c>
       <c r="C25">
-        <v>6.825745236317187</v>
+        <v>10.45502123996589</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.32687939417563</v>
+        <v>16.58331257440131</v>
       </c>
       <c r="F25">
-        <v>26.20546195991028</v>
+        <v>36.39866636361211</v>
       </c>
       <c r="G25">
-        <v>20.01687307713501</v>
+        <v>29.20756269891836</v>
       </c>
       <c r="H25">
-        <v>8.489988487125904</v>
+        <v>14.51859778482419</v>
       </c>
       <c r="I25">
-        <v>13.92138055789222</v>
+        <v>23.25619778057917</v>
       </c>
       <c r="J25">
-        <v>5.366862997342207</v>
+        <v>7.636333349350275</v>
       </c>
       <c r="K25">
-        <v>11.54898885474078</v>
+        <v>8.643714959115165</v>
       </c>
       <c r="L25">
-        <v>9.166554802998968</v>
+        <v>12.80261489417986</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.12927176697877</v>
+        <v>18.78106117008679</v>
       </c>
       <c r="O25">
-        <v>13.52522478914099</v>
+        <v>22.13741641925575</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_84/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.04665772482491</v>
+        <v>13.63469972466279</v>
       </c>
       <c r="C2">
-        <v>10.47893012220653</v>
+        <v>6.881778854686137</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.57036778080546</v>
+        <v>10.96248577171343</v>
       </c>
       <c r="F2">
-        <v>36.40293817965991</v>
+        <v>25.3981004108905</v>
       </c>
       <c r="G2">
-        <v>29.33399675307534</v>
+        <v>19.85420468823521</v>
       </c>
       <c r="H2">
-        <v>14.57758611867002</v>
+        <v>8.592063353325676</v>
       </c>
       <c r="I2">
-        <v>23.37023978080238</v>
+        <v>14.11062230427052</v>
       </c>
       <c r="J2">
-        <v>7.616124039007515</v>
+        <v>5.290273225212608</v>
       </c>
       <c r="K2">
-        <v>8.381945459088373</v>
+        <v>10.75481980904147</v>
       </c>
       <c r="L2">
-        <v>12.7632868340245</v>
+        <v>8.772575822734449</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.84914455775374</v>
+        <v>12.34612387672515</v>
       </c>
       <c r="O2">
-        <v>22.23839176888653</v>
+        <v>13.62307688163418</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.79026408353352</v>
+        <v>12.72656072236126</v>
       </c>
       <c r="C3">
-        <v>10.49642845510756</v>
+        <v>6.922225114736265</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.56679092471172</v>
+        <v>10.71921205217012</v>
       </c>
       <c r="F3">
-        <v>36.4216525742797</v>
+        <v>24.87427211477592</v>
       </c>
       <c r="G3">
-        <v>29.43497388215109</v>
+        <v>19.78771914196471</v>
       </c>
       <c r="H3">
-        <v>14.62131112920121</v>
+        <v>8.669807972910304</v>
       </c>
       <c r="I3">
-        <v>23.45491895119098</v>
+        <v>14.2569862685457</v>
       </c>
       <c r="J3">
-        <v>7.602118139890761</v>
+        <v>5.237502397049012</v>
       </c>
       <c r="K3">
-        <v>8.201369063723284</v>
+        <v>10.17958988289068</v>
       </c>
       <c r="L3">
-        <v>12.74025727725266</v>
+        <v>8.502237426361567</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.89837454619737</v>
+        <v>12.49840133738746</v>
       </c>
       <c r="O3">
-        <v>22.31451187347675</v>
+        <v>13.70958568149641</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.63158686337303</v>
+        <v>12.13508801277224</v>
       </c>
       <c r="C4">
-        <v>10.50781440913358</v>
+        <v>6.948276002367653</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.56717180848327</v>
+        <v>10.57213949806326</v>
       </c>
       <c r="F4">
-        <v>36.44095580914389</v>
+        <v>24.56496166190256</v>
       </c>
       <c r="G4">
-        <v>29.5044819586561</v>
+        <v>19.76736093921121</v>
       </c>
       <c r="H4">
-        <v>14.6500107947666</v>
+        <v>8.721590529819458</v>
       </c>
       <c r="I4">
-        <v>23.51056142555085</v>
+        <v>14.3553152836163</v>
       </c>
       <c r="J4">
-        <v>7.593367498513179</v>
+        <v>5.204698525143517</v>
       </c>
       <c r="K4">
-        <v>8.089310638353039</v>
+        <v>9.808509655234445</v>
       </c>
       <c r="L4">
-        <v>12.72793029447649</v>
+        <v>8.335219146128086</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.93013295580479</v>
+        <v>12.59457542244868</v>
       </c>
       <c r="O4">
-        <v>22.36504039120009</v>
+        <v>13.77208200886048</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.56669887826899</v>
+        <v>11.88550240104288</v>
       </c>
       <c r="C5">
-        <v>10.51261613069463</v>
+        <v>6.959197558756992</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.56797711741254</v>
+        <v>10.51285879279113</v>
       </c>
       <c r="F5">
-        <v>36.45078759346293</v>
+        <v>24.44213165097305</v>
       </c>
       <c r="G5">
-        <v>29.5346895615683</v>
+        <v>19.76403399349365</v>
       </c>
       <c r="H5">
-        <v>14.66217241553606</v>
+        <v>8.743684860392719</v>
       </c>
       <c r="I5">
-        <v>23.53415416242761</v>
+        <v>14.39744614533746</v>
       </c>
       <c r="J5">
-        <v>7.589763910827239</v>
+        <v>5.1912334322625</v>
       </c>
       <c r="K5">
-        <v>8.043408731532651</v>
+        <v>9.652867092755137</v>
       </c>
       <c r="L5">
-        <v>12.7233667374978</v>
+        <v>8.266999481881166</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.94346073077387</v>
+        <v>12.63444731832927</v>
       </c>
       <c r="O5">
-        <v>22.38658399963995</v>
+        <v>13.79982446425691</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.55591329326378</v>
+        <v>11.84354104811363</v>
       </c>
       <c r="C6">
-        <v>10.51342324139014</v>
+        <v>6.961029524757098</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.56815015775642</v>
+        <v>10.50305686689471</v>
       </c>
       <c r="F6">
-        <v>36.45253888197637</v>
+        <v>24.42193335162327</v>
       </c>
       <c r="G6">
-        <v>29.53981904707583</v>
+        <v>19.76377633782925</v>
       </c>
       <c r="H6">
-        <v>14.66422001974058</v>
+        <v>8.747412845773178</v>
       </c>
       <c r="I6">
-        <v>23.53812717336204</v>
+        <v>14.40456454731741</v>
       </c>
       <c r="J6">
-        <v>7.589163274610927</v>
+        <v>5.188991805730468</v>
       </c>
       <c r="K6">
-        <v>8.035774239913575</v>
+        <v>9.62675803511366</v>
       </c>
       <c r="L6">
-        <v>12.72263683847591</v>
+        <v>8.255665148572954</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.94569713802521</v>
+        <v>12.64110931619348</v>
       </c>
       <c r="O6">
-        <v>22.39021883859228</v>
+        <v>13.8045660611971</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.63071255593971</v>
+        <v>12.13175670614753</v>
       </c>
       <c r="C7">
-        <v>10.50787851090458</v>
+        <v>6.948422057269388</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.56718003440831</v>
+        <v>10.57133727704829</v>
       </c>
       <c r="F7">
-        <v>36.44108044482032</v>
+        <v>24.56329196084342</v>
       </c>
       <c r="G7">
-        <v>29.50488173408604</v>
+        <v>19.76729619108408</v>
       </c>
       <c r="H7">
-        <v>14.65017292205599</v>
+        <v>8.721884515146449</v>
       </c>
       <c r="I7">
-        <v>23.51087588808318</v>
+        <v>14.35587521545291</v>
       </c>
       <c r="J7">
-        <v>7.59331905120136</v>
+        <v>5.204517318737495</v>
       </c>
       <c r="K7">
-        <v>8.088692468016125</v>
+        <v>9.806428409527198</v>
       </c>
       <c r="L7">
-        <v>12.72786688224492</v>
+        <v>8.334299615814421</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.9303111347706</v>
+        <v>12.59511038484323</v>
       </c>
       <c r="O7">
-        <v>22.36532707829345</v>
+        <v>13.7724470520677</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.95856502258511</v>
+        <v>13.32858012579005</v>
       </c>
       <c r="C8">
-        <v>10.48483058438295</v>
+        <v>6.895471958342051</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.56860091979718</v>
+        <v>10.87817259863011</v>
       </c>
       <c r="F8">
-        <v>36.40777028708906</v>
+        <v>25.21500031853188</v>
       </c>
       <c r="G8">
-        <v>29.36725228498709</v>
+        <v>19.82692992281982</v>
       </c>
       <c r="H8">
-        <v>14.59227834543226</v>
+        <v>8.618014148104542</v>
       </c>
       <c r="I8">
-        <v>23.39868000900732</v>
+        <v>14.15929128935227</v>
       </c>
       <c r="J8">
-        <v>7.611326334641016</v>
+        <v>5.272163693133508</v>
       </c>
       <c r="K8">
-        <v>8.31996399077747</v>
+        <v>10.56023173730004</v>
       </c>
       <c r="L8">
-        <v>12.75497228472486</v>
+        <v>8.6796351356288</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.86580189246346</v>
+        <v>12.39807846529155</v>
       </c>
       <c r="O8">
-        <v>22.26385108329823</v>
+        <v>13.65090714358946</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.58782680367744</v>
+        <v>15.40855718821054</v>
       </c>
       <c r="C9">
-        <v>10.44470702974348</v>
+        <v>6.801310745258523</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.59173524191397</v>
+        <v>11.49487850435921</v>
       </c>
       <c r="F9">
-        <v>36.40435909002926</v>
+        <v>26.58524457639104</v>
       </c>
       <c r="G9">
-        <v>29.15716172051026</v>
+        <v>20.1135771201866</v>
       </c>
       <c r="H9">
-        <v>14.49342257856</v>
+        <v>8.447641507668854</v>
       </c>
       <c r="I9">
-        <v>23.20760129183498</v>
+        <v>13.84410944753349</v>
       </c>
       <c r="J9">
-        <v>7.645427056532669</v>
+        <v>5.401458895637379</v>
       </c>
       <c r="K9">
-        <v>8.761559265798903</v>
+        <v>11.89410660913085</v>
       </c>
       <c r="L9">
-        <v>12.82233350930811</v>
+        <v>9.344595416555245</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.75140193843353</v>
+        <v>12.0325795741373</v>
       </c>
       <c r="O9">
-        <v>22.09494643701044</v>
+        <v>13.49087163486802</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.03708693595075</v>
+        <v>16.77644384656456</v>
       </c>
       <c r="C10">
-        <v>10.41829356281195</v>
+        <v>6.738062041664921</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.6209887318559</v>
+        <v>11.95293302722218</v>
       </c>
       <c r="F10">
-        <v>36.43943910684293</v>
+        <v>27.64058946527984</v>
       </c>
       <c r="G10">
-        <v>29.03956267512915</v>
+        <v>20.43672136710479</v>
       </c>
       <c r="H10">
-        <v>14.42970914719585</v>
+        <v>8.344562102541753</v>
       </c>
       <c r="I10">
-        <v>23.08483275236831</v>
+        <v>13.66010442849405</v>
       </c>
       <c r="J10">
-        <v>7.66972516260951</v>
+        <v>5.494192334929005</v>
       </c>
       <c r="K10">
-        <v>9.075528105707001</v>
+        <v>12.78384567187053</v>
       </c>
       <c r="L10">
-        <v>12.88022762845252</v>
+        <v>9.820754274950161</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.67466625804992</v>
+        <v>11.77628938408189</v>
       </c>
       <c r="O10">
-        <v>21.98921394788883</v>
+        <v>13.42652440211683</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.23771506253384</v>
+        <v>17.36447679583657</v>
       </c>
       <c r="C11">
-        <v>10.40693717597245</v>
+        <v>6.710587034765153</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.63692125966396</v>
+        <v>12.16156683547379</v>
       </c>
       <c r="F11">
-        <v>36.46350706440653</v>
+        <v>28.12964535002786</v>
       </c>
       <c r="G11">
-        <v>28.99410240675459</v>
+        <v>20.60981539533877</v>
       </c>
       <c r="H11">
-        <v>14.40265392710942</v>
+        <v>8.302891463776568</v>
       </c>
       <c r="I11">
-        <v>23.03280289744376</v>
+        <v>13.58783351176617</v>
       </c>
       <c r="J11">
-        <v>7.680611215831518</v>
+        <v>5.535846140007981</v>
       </c>
       <c r="K11">
-        <v>9.215470601443533</v>
+        <v>13.16875193118085</v>
       </c>
       <c r="L11">
-        <v>12.90832918800364</v>
+        <v>10.03379806207296</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.64133181542059</v>
+        <v>11.66225024024613</v>
       </c>
       <c r="O11">
-        <v>21.94510454597169</v>
+        <v>13.4100373995883</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.31307942776147</v>
+        <v>17.58227246895221</v>
       </c>
       <c r="C12">
-        <v>10.4027311626002</v>
+        <v>6.700370698952137</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.64332832487971</v>
+        <v>12.24054546752341</v>
       </c>
       <c r="F12">
-        <v>36.47378105136779</v>
+        <v>28.31599950773461</v>
       </c>
       <c r="G12">
-        <v>28.97804757019926</v>
+        <v>20.67922747927176</v>
       </c>
       <c r="H12">
-        <v>14.39268566600325</v>
+        <v>8.287900932792791</v>
       </c>
       <c r="I12">
-        <v>23.01364935854488</v>
+        <v>13.56220965136671</v>
       </c>
       <c r="J12">
-        <v>7.684709063349812</v>
+        <v>5.55153950571801</v>
       </c>
       <c r="K12">
-        <v>9.268001542378244</v>
+        <v>13.31164152590855</v>
       </c>
       <c r="L12">
-        <v>12.91921873161575</v>
+        <v>10.11389684021676</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.62893413405457</v>
+        <v>11.6194250509315</v>
       </c>
       <c r="O12">
-        <v>21.928975442174</v>
+        <v>13.40573645898559</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.29687653393589</v>
+        <v>17.53558262104703</v>
       </c>
       <c r="C13">
-        <v>10.40363281040958</v>
+        <v>6.702562591579935</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.64193188750683</v>
+        <v>12.22353815285264</v>
       </c>
       <c r="F13">
-        <v>36.47151688374908</v>
+        <v>28.27581525239437</v>
       </c>
       <c r="G13">
-        <v>28.98145361010875</v>
+        <v>20.6641048091925</v>
       </c>
       <c r="H13">
-        <v>14.39482019650646</v>
+        <v>8.291093670840699</v>
       </c>
       <c r="I13">
-        <v>23.01774999718594</v>
+        <v>13.56764902044303</v>
       </c>
       <c r="J13">
-        <v>7.683827613233108</v>
+        <v>5.548163273966839</v>
       </c>
       <c r="K13">
-        <v>9.256709345001731</v>
+        <v>13.28099529675482</v>
       </c>
       <c r="L13">
-        <v>12.91686253389508</v>
+        <v>10.09667269846501</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.63159418747652</v>
+        <v>11.62863237519955</v>
       </c>
       <c r="O13">
-        <v>21.93242358780391</v>
+        <v>13.40657468595184</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.24392793181575</v>
+        <v>17.38249252926516</v>
       </c>
       <c r="C14">
-        <v>10.40658925496243</v>
+        <v>6.709742757501262</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.63744090422387</v>
+        <v>12.16806533573155</v>
       </c>
       <c r="F14">
-        <v>36.46432910299499</v>
+        <v>28.14495430896716</v>
       </c>
       <c r="G14">
-        <v>28.99275829411849</v>
+        <v>20.61544791462095</v>
       </c>
       <c r="H14">
-        <v>14.40182828336017</v>
+        <v>8.301642136948379</v>
       </c>
       <c r="I14">
-        <v>23.03121612071861</v>
+        <v>13.58568988849807</v>
       </c>
       <c r="J14">
-        <v>7.680948840891472</v>
+        <v>5.537138866753003</v>
       </c>
       <c r="K14">
-        <v>9.219801878353067</v>
+        <v>13.18056503380852</v>
       </c>
       <c r="L14">
-        <v>12.90922013902144</v>
+        <v>10.04039972405015</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.64030733919906</v>
+        <v>11.65871983466655</v>
       </c>
       <c r="O14">
-        <v>21.94376608439991</v>
+        <v>13.40964403040771</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.21141403095255</v>
+        <v>17.28808621207359</v>
       </c>
       <c r="C15">
-        <v>10.40841244519884</v>
+        <v>6.714165323239442</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.63473860751798</v>
+        <v>12.13408136514646</v>
       </c>
       <c r="F15">
-        <v>36.46007724129031</v>
+        <v>28.06494541302863</v>
       </c>
       <c r="G15">
-        <v>28.99983392720338</v>
+        <v>20.58615060223538</v>
       </c>
       <c r="H15">
-        <v>14.40615699812654</v>
+        <v>8.308207343797619</v>
       </c>
       <c r="I15">
-        <v>23.03953601120284</v>
+        <v>13.59697055013912</v>
       </c>
       <c r="J15">
-        <v>7.679182311417356</v>
+        <v>5.530375571986047</v>
       </c>
       <c r="K15">
-        <v>9.197133436038488</v>
+        <v>13.11867508694634</v>
       </c>
       <c r="L15">
-        <v>12.90457108540468</v>
+        <v>10.00585409290943</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.6456737183287</v>
+        <v>11.67719579854808</v>
       </c>
       <c r="O15">
-        <v>21.95078848191232</v>
+        <v>13.41178015337041</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.0238939282398</v>
+        <v>16.73732937359852</v>
       </c>
       <c r="C16">
-        <v>10.4190489611471</v>
+        <v>6.739883808578187</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.62000001448615</v>
+        <v>11.9392980001556</v>
       </c>
       <c r="F16">
-        <v>36.4380288917284</v>
+        <v>27.60879772081152</v>
       </c>
       <c r="G16">
-        <v>29.04269570225657</v>
+        <v>20.42594434206082</v>
       </c>
       <c r="H16">
-        <v>14.43151604421824</v>
+        <v>8.347393666171442</v>
       </c>
       <c r="I16">
-        <v>23.08830985575134</v>
+        <v>13.66506595079663</v>
       </c>
       <c r="J16">
-        <v>7.669010332449794</v>
+        <v>5.491459157061093</v>
       </c>
       <c r="K16">
-        <v>9.066320365312571</v>
+        <v>12.75829062531478</v>
       </c>
       <c r="L16">
-        <v>12.8784261615</v>
+        <v>9.806754017713718</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.67687632239011</v>
+        <v>11.78379274814372</v>
       </c>
       <c r="O16">
-        <v>21.992176916394</v>
+        <v>13.42786797074861</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.9078458236587</v>
+        <v>16.39072151929231</v>
       </c>
       <c r="C17">
-        <v>10.42574268333609</v>
+        <v>6.755994376574227</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.61162813564825</v>
+        <v>11.81982474630892</v>
       </c>
       <c r="F17">
-        <v>36.42657596707922</v>
+        <v>27.33116888050182</v>
       </c>
       <c r="G17">
-        <v>29.07105150316727</v>
+        <v>20.33443148379616</v>
       </c>
       <c r="H17">
-        <v>14.44756665440476</v>
+        <v>8.372796976259576</v>
       </c>
       <c r="I17">
-        <v>23.11920894072262</v>
+        <v>13.70983772060808</v>
       </c>
       <c r="J17">
-        <v>7.662727019141063</v>
+        <v>5.467446511208535</v>
       </c>
       <c r="K17">
-        <v>8.985297315807911</v>
+        <v>12.53211323665832</v>
       </c>
       <c r="L17">
-        <v>12.86283521475562</v>
+        <v>9.68365194960993</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.69642038620871</v>
+        <v>11.8498338818749</v>
       </c>
       <c r="O17">
-        <v>22.0185894325488</v>
+        <v>13.44108518047699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.84074969471769</v>
+        <v>16.18813782371723</v>
       </c>
       <c r="C18">
-        <v>10.42965480853554</v>
+        <v>6.765382751592641</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.60706016635255</v>
+        <v>11.75113515196985</v>
       </c>
       <c r="F18">
-        <v>36.42075232264829</v>
+        <v>27.17233629147302</v>
       </c>
       <c r="G18">
-        <v>29.0881171684492</v>
+        <v>20.28424603894394</v>
       </c>
       <c r="H18">
-        <v>14.4569800643932</v>
+        <v>8.387897233297977</v>
       </c>
       <c r="I18">
-        <v>23.13734066063496</v>
+        <v>13.73665918036063</v>
       </c>
       <c r="J18">
-        <v>7.659097303536791</v>
+        <v>5.453585290460848</v>
       </c>
       <c r="K18">
-        <v>8.938426225569119</v>
+        <v>12.40015478432531</v>
       </c>
       <c r="L18">
-        <v>12.85403422813104</v>
+        <v>9.612514814887072</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.70780972314325</v>
+        <v>11.88805932041612</v>
       </c>
       <c r="O18">
-        <v>22.03415662742027</v>
+        <v>13.44988440700224</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.81797451456564</v>
+        <v>16.11899147005104</v>
       </c>
       <c r="C19">
-        <v>10.43099006008552</v>
+        <v>6.768582410953877</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.6055561151377</v>
+        <v>11.72788492473615</v>
       </c>
       <c r="F19">
-        <v>36.41891188913425</v>
+        <v>27.11870877977917</v>
       </c>
       <c r="G19">
-        <v>29.09402504043712</v>
+        <v>20.26767126561217</v>
       </c>
       <c r="H19">
-        <v>14.4601984702992</v>
+        <v>8.393092764363846</v>
       </c>
       <c r="I19">
-        <v>23.14354147455936</v>
+        <v>13.74592128857062</v>
       </c>
       <c r="J19">
-        <v>7.657865656681071</v>
+        <v>5.448883683541301</v>
       </c>
       <c r="K19">
-        <v>8.922511822776386</v>
+        <v>12.3551557408184</v>
       </c>
       <c r="L19">
-        <v>12.85108313476916</v>
+        <v>9.588374045098551</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.71169142071871</v>
+        <v>11.90104330420164</v>
       </c>
       <c r="O19">
-        <v>22.03949187206969</v>
+        <v>13.45306613009847</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.92023592271378</v>
+        <v>16.42795188989059</v>
       </c>
       <c r="C20">
-        <v>10.4250237036974</v>
+        <v>6.754266743362882</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.61249376632579</v>
+        <v>11.83254043378053</v>
       </c>
       <c r="F20">
-        <v>36.42771614454592</v>
+        <v>27.3606357207153</v>
       </c>
       <c r="G20">
-        <v>29.06795468714911</v>
+        <v>20.34391871756101</v>
       </c>
       <c r="H20">
-        <v>14.44583925495782</v>
+        <v>8.370041875489889</v>
       </c>
       <c r="I20">
-        <v>23.11588248567255</v>
+        <v>13.7049602542367</v>
       </c>
       <c r="J20">
-        <v>7.663397518480817</v>
+        <v>5.470007877658629</v>
       </c>
       <c r="K20">
-        <v>8.993950530421634</v>
+        <v>12.55638357069421</v>
       </c>
       <c r="L20">
-        <v>12.86447770488736</v>
+        <v>9.696791232053313</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.69432456476913</v>
+        <v>11.8427788725713</v>
       </c>
       <c r="O20">
-        <v>22.01573891692792</v>
+        <v>13.43955355024477</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.25949729353084</v>
+        <v>17.42759089414981</v>
       </c>
       <c r="C21">
-        <v>10.4057183165482</v>
+        <v>6.707628658875679</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.63874990197118</v>
+        <v>12.1843602523443</v>
       </c>
       <c r="F21">
-        <v>36.46640890149776</v>
+        <v>28.18336088482064</v>
       </c>
       <c r="G21">
-        <v>28.989406319703</v>
+        <v>20.62963390247397</v>
       </c>
       <c r="H21">
-        <v>14.39976232424046</v>
+        <v>8.298522057974504</v>
       </c>
       <c r="I21">
-        <v>23.02724589306187</v>
+        <v>13.58034270852475</v>
       </c>
       <c r="J21">
-        <v>7.681795073372494</v>
+        <v>5.540379202459548</v>
       </c>
       <c r="K21">
-        <v>9.230655403844532</v>
+        <v>13.21014168940371</v>
       </c>
       <c r="L21">
-        <v>12.91145820959881</v>
+        <v>10.05694457066507</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.63774196612106</v>
+        <v>11.64987273570939</v>
       </c>
       <c r="O21">
-        <v>21.940418930841</v>
+        <v>13.40868893901692</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.47764411492022</v>
+        <v>18.05249049949675</v>
       </c>
       <c r="C22">
-        <v>10.39365120868003</v>
+        <v>6.678243689022277</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.65808646506542</v>
+        <v>12.4141143769197</v>
       </c>
       <c r="F22">
-        <v>36.49845449365601</v>
+        <v>28.72776162749902</v>
       </c>
       <c r="G22">
-        <v>28.94483344352833</v>
+        <v>20.8389357771806</v>
       </c>
       <c r="H22">
-        <v>14.37126259562601</v>
+        <v>8.256399640507849</v>
       </c>
       <c r="I22">
-        <v>22.9725169788207</v>
+        <v>13.50911087469411</v>
       </c>
       <c r="J22">
-        <v>7.693676146154864</v>
+        <v>5.585902921497745</v>
       </c>
       <c r="K22">
-        <v>9.382641693990296</v>
+        <v>13.62070355759128</v>
       </c>
       <c r="L22">
-        <v>12.94360590898344</v>
+        <v>10.28894251356639</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.60207508703161</v>
+        <v>11.52588632866048</v>
       </c>
       <c r="O22">
-        <v>21.8945399262748</v>
+        <v>13.39988782757203</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.36156482246041</v>
+        <v>17.72155639826561</v>
       </c>
       <c r="C23">
-        <v>10.40004144771311</v>
+        <v>6.693826251050837</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.64756830856316</v>
+        <v>12.29152671055809</v>
       </c>
       <c r="F23">
-        <v>36.48073514104028</v>
+        <v>28.43663272728597</v>
       </c>
       <c r="G23">
-        <v>28.9680026556779</v>
+        <v>20.72512891013187</v>
       </c>
       <c r="H23">
-        <v>14.38632584335181</v>
+        <v>8.278445075068452</v>
       </c>
       <c r="I23">
-        <v>23.00143400788064</v>
+        <v>13.5461598726033</v>
       </c>
       <c r="J23">
-        <v>7.687348196681787</v>
+        <v>5.56165003579039</v>
       </c>
       <c r="K23">
-        <v>9.301786942025506</v>
+        <v>13.40311017777956</v>
       </c>
       <c r="L23">
-        <v>12.92631798848594</v>
+        <v>10.16544946494502</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.62099129770932</v>
+        <v>11.59187152050514</v>
       </c>
       <c r="O23">
-        <v>21.91871997847829</v>
+        <v>13.40350998650949</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.91463553250823</v>
+        <v>16.41113036557469</v>
       </c>
       <c r="C24">
-        <v>10.42534855558839</v>
+        <v>6.755047413366731</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.612101650856</v>
+        <v>11.82679167535684</v>
       </c>
       <c r="F24">
-        <v>36.4271983000613</v>
+        <v>27.34731132289509</v>
       </c>
       <c r="G24">
-        <v>29.06935237965585</v>
+        <v>20.33962198985234</v>
       </c>
       <c r="H24">
-        <v>14.44661963377861</v>
+        <v>8.37128591588697</v>
       </c>
       <c r="I24">
-        <v>23.11738523150153</v>
+        <v>13.70716199538213</v>
       </c>
       <c r="J24">
-        <v>7.663094439757784</v>
+        <v>5.468850058130228</v>
       </c>
       <c r="K24">
-        <v>8.990039311286051</v>
+        <v>12.54541695085723</v>
       </c>
       <c r="L24">
-        <v>12.8637346286361</v>
+        <v>9.690852091664134</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.69527160838586</v>
+        <v>11.84596763961716</v>
       </c>
       <c r="O24">
-        <v>22.01702644428737</v>
+        <v>13.44024226890548</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.41956171814241</v>
+        <v>14.87419637804725</v>
       </c>
       <c r="C25">
-        <v>10.45502123996589</v>
+        <v>6.825745236317317</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.58331257440131</v>
+        <v>11.32687939417559</v>
       </c>
       <c r="F25">
-        <v>36.39866636361211</v>
+        <v>26.20546195991022</v>
       </c>
       <c r="G25">
-        <v>29.20756269891836</v>
+        <v>20.01687307713511</v>
       </c>
       <c r="H25">
-        <v>14.51859778482419</v>
+        <v>8.489988487125851</v>
       </c>
       <c r="I25">
-        <v>23.25619778057917</v>
+        <v>13.92138055789221</v>
       </c>
       <c r="J25">
-        <v>7.636333349350275</v>
+        <v>5.366862997342145</v>
       </c>
       <c r="K25">
-        <v>8.643714959115165</v>
+        <v>11.54898885474077</v>
       </c>
       <c r="L25">
-        <v>12.80261489417986</v>
+        <v>9.166554802998919</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.78106117008679</v>
+        <v>12.12927176697874</v>
       </c>
       <c r="O25">
-        <v>22.13741641925575</v>
+        <v>13.52522478914097</v>
       </c>
     </row>
   </sheetData>
